--- a/downloaded_files/SBES376_Lecture-35474.xlsx
+++ b/downloaded_files/SBES376_Lecture-35474.xlsx
@@ -48,7 +48,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>1200172</x:t>

--- a/downloaded_files/SBES376_Lecture-35474.xlsx
+++ b/downloaded_files/SBES376_Lecture-35474.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد طه وصال ويس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
     <x:t>1210009</x:t>
@@ -182,7 +173,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +473,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +564,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.9040018866</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -605,7 +596,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45906.415921331</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -637,7 +628,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.415921331</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -654,38 +645,6 @@
       <x:c r="R4" s="2" t="s"/>
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
